--- a/Non_Virtualized_Tests/CWXTSUBC/Data/CWXTSUBC_Iterate_data.xlsx
+++ b/Non_Virtualized_Tests/CWXTSUBC/Data/CWXTSUBC_Iterate_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rnuesse\git\FTSDEMO_RXN3_Total_Tests\Non_Virtualized_Tests\CWXTSUBC\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4AB7D6-3C8E-4664-845D-E73712BDC128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC73A95A-27FB-46B5-A229-B266872887D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test data" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -159,7 +159,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -265,7 +265,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -407,7 +407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -449,7 +449,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -477,13 +477,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
-        <v>75000</v>
+        <v>15000</v>
       </c>
       <c r="D4" s="3">
-        <v>1500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -491,13 +491,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="D5" s="3">
-        <v>2000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3">
-        <v>100001</v>
+        <v>20001</v>
       </c>
       <c r="D6" s="3">
-        <v>2500.02</v>
+        <v>800.04</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -519,13 +519,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3">
-        <v>150000</v>
+        <v>25000</v>
       </c>
       <c r="D7" s="3">
-        <v>3750</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -533,27 +533,27 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3">
-        <v>200000</v>
+        <v>40000</v>
       </c>
       <c r="D8" s="3">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3">
-        <v>200001</v>
-      </c>
-      <c r="D10" s="3">
-        <v>6000.03</v>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>40001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2400.06</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3">
-        <v>250000</v>
+        <v>55000</v>
       </c>
       <c r="D11" s="3">
-        <v>7500</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -575,13 +575,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3">
-        <v>300000</v>
+        <v>60000</v>
       </c>
       <c r="D12" s="3">
-        <v>9000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -589,13 +589,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3">
-        <v>300001</v>
+        <v>60001</v>
       </c>
       <c r="D13" s="3">
-        <v>10500.03</v>
+        <v>4800.08</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -603,13 +603,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="3">
-        <v>350000</v>
+        <v>75000</v>
       </c>
       <c r="D14" s="3">
-        <v>12250</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -617,13 +617,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" s="3">
-        <v>400000</v>
+        <v>80000</v>
       </c>
       <c r="D15" s="3">
-        <v>14000.000000000002</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -631,13 +631,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" s="3">
-        <v>400001</v>
+        <v>80001</v>
       </c>
       <c r="D16" s="3">
-        <v>16000.04</v>
+        <v>8000.1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -645,13 +645,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3">
-        <v>450000</v>
+        <v>85000</v>
       </c>
       <c r="D17" s="3">
-        <v>18000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -659,13 +659,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="D18" s="3">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -673,7 +673,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -701,13 +701,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
-        <v>15000</v>
+        <v>75000</v>
       </c>
       <c r="D21" s="3">
-        <v>300</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -729,13 +729,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="3">
-        <v>20001</v>
+        <v>100001</v>
       </c>
       <c r="D23" s="3">
-        <v>800.04</v>
+        <v>2500.02</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -743,13 +743,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3">
-        <v>25000</v>
+        <v>150000</v>
       </c>
       <c r="D24" s="3">
-        <v>1000</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -757,13 +757,13 @@
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="3">
-        <v>40000</v>
+        <v>200000</v>
       </c>
       <c r="D25" s="3">
-        <v>1600</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -771,13 +771,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
-        <v>40001</v>
+        <v>200001</v>
       </c>
       <c r="D26" s="3">
-        <v>2400.06</v>
+        <v>6000.03</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -785,13 +785,13 @@
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
-        <v>55000</v>
+        <v>250000</v>
       </c>
       <c r="D27" s="3">
-        <v>3300</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -799,13 +799,13 @@
         <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>60000</v>
+        <v>300000</v>
       </c>
       <c r="D28" s="3">
-        <v>3600</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -813,13 +813,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="3">
-        <v>60001</v>
+        <v>300001</v>
       </c>
       <c r="D29" s="3">
-        <v>4800.08</v>
+        <v>10500.03</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -827,13 +827,13 @@
         <v>4</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="3">
-        <v>75000</v>
+        <v>350000</v>
       </c>
       <c r="D30" s="3">
-        <v>6000</v>
+        <v>12250</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -841,13 +841,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" s="3">
-        <v>80000</v>
+        <v>400000</v>
       </c>
       <c r="D31" s="3">
-        <v>6400</v>
+        <v>14000.000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -855,13 +855,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" s="3">
-        <v>80001</v>
+        <v>400001</v>
       </c>
       <c r="D32" s="3">
-        <v>8000.1</v>
+        <v>16000.04</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -869,13 +869,13 @@
         <v>4</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" s="3">
-        <v>85000</v>
+        <v>450000</v>
       </c>
       <c r="D33" s="3">
-        <v>8500</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -883,14 +883,78 @@
         <v>4</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="3">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="D34" s="3">
-        <v>10000</v>
-      </c>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
